--- a/Documentation/Test Cases.xlsx
+++ b/Documentation/Test Cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Desktop\skole\H5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\source\repos\Interdisciplinary_Project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4E1A8D-5292-42D4-A4C3-665E3079217A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719E3230-13AB-45FC-AFEB-B7AC707A1337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <t>Id</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Context-1</t>
   </si>
   <si>
-    <t>Context-2</t>
-  </si>
-  <si>
     <t>End-2</t>
   </si>
   <si>
@@ -87,30 +84,9 @@
     <t>Error-1</t>
   </si>
   <si>
-    <t>Error-2</t>
-  </si>
-  <si>
-    <t>Factory-2</t>
-  </si>
-  <si>
-    <t>Factory-3</t>
-  </si>
-  <si>
-    <t>Factory-4</t>
-  </si>
-  <si>
     <t>Factory-5</t>
   </si>
   <si>
-    <t>Repo-1</t>
-  </si>
-  <si>
-    <t>Repo-2</t>
-  </si>
-  <si>
-    <t>Repo-3</t>
-  </si>
-  <si>
     <t>Repo-4</t>
   </si>
   <si>
@@ -210,27 +186,12 @@
     <t>first version it will be hardcoded</t>
   </si>
   <si>
-    <t>read from context</t>
-  </si>
-  <si>
-    <t>write from context</t>
-  </si>
-  <si>
-    <t>reconsider this requirement</t>
-  </si>
-  <si>
     <t>backend can handle commands</t>
   </si>
   <si>
     <t>CQRS-1-1</t>
   </si>
   <si>
-    <t>CQRS-1-2</t>
-  </si>
-  <si>
-    <t>CQRS-1-3</t>
-  </si>
-  <si>
     <t>backend can receive a command, transmit it to the correct handler and catch any errors while handling it</t>
   </si>
   <si>
@@ -240,12 +201,6 @@
     <t>binary flags get converted into the correct error messages</t>
   </si>
   <si>
-    <t>validatior generates binary flag</t>
-  </si>
-  <si>
-    <t>the binary flag should hav</t>
-  </si>
-  <si>
     <t>Factory-1</t>
   </si>
   <si>
@@ -268,6 +223,51 @@
   </si>
   <si>
     <t>can use mappers to map entities to different models</t>
+  </si>
+  <si>
+    <t>read and write from context</t>
+  </si>
+  <si>
+    <t>the backend can contact the context and conduct operations in the context</t>
+  </si>
+  <si>
+    <t>basic CRUD (something like Context-1a, Context-1b, etc for the different test tasks</t>
+  </si>
+  <si>
+    <t>Context-1a</t>
+  </si>
+  <si>
+    <t>Create message</t>
+  </si>
+  <si>
+    <t>Context-1b</t>
+  </si>
+  <si>
+    <t>Read message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Context-1c </t>
+  </si>
+  <si>
+    <t>Read all message</t>
+  </si>
+  <si>
+    <t>using data in a command</t>
+  </si>
+  <si>
+    <t>can get a specific entity and map to a specific model</t>
+  </si>
+  <si>
+    <t>can map all entities to the a specific model</t>
+  </si>
+  <si>
+    <t>MessageDetails</t>
+  </si>
+  <si>
+    <t>MessageListItem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PostMessage </t>
   </si>
 </sst>
 </file>
@@ -289,18 +289,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -315,10 +309,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,18 +592,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="95.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -636,13 +629,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -650,13 +643,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -664,10 +657,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -675,27 +668,27 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -703,10 +696,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -714,10 +707,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -726,10 +719,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -737,259 +730,208 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" t="s">
-        <v>76</v>
+        <v>58</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E42">
-    <sortCondition ref="A2:A42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E35">
+    <sortCondition ref="A2:A35"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Test Cases.xlsx
+++ b/Documentation/Test Cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\source\repos\Interdisciplinary_Project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719E3230-13AB-45FC-AFEB-B7AC707A1337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FD9656-3BC3-4155-8EBE-056A49DA65F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
   <si>
     <t>Id</t>
   </si>
@@ -96,24 +96,12 @@
     <t>Repo-6</t>
   </si>
   <si>
-    <t>Repo-7</t>
-  </si>
-  <si>
-    <t>Repo-8</t>
-  </si>
-  <si>
-    <t>Result-1</t>
-  </si>
-  <si>
     <t>Result-2</t>
   </si>
   <si>
     <t>Security-2</t>
   </si>
   <si>
-    <t>Service-1</t>
-  </si>
-  <si>
     <t>Service-2</t>
   </si>
   <si>
@@ -268,6 +256,72 @@
   </si>
   <si>
     <t xml:space="preserve">PostMessage </t>
+  </si>
+  <si>
+    <t>Getting all messages</t>
+  </si>
+  <si>
+    <t>Getting a single message</t>
+  </si>
+  <si>
+    <t>Getting all lifeforms</t>
+  </si>
+  <si>
+    <t>posting a message</t>
+  </si>
+  <si>
+    <t>Getting a single lifeform</t>
+  </si>
+  <si>
+    <t>Can query using CQRS</t>
+  </si>
+  <si>
+    <t>Unit of Work successfully saves all context</t>
+  </si>
+  <si>
+    <t>Correctly result to status conversion</t>
+  </si>
+  <si>
+    <t>All validations for creation are working</t>
+  </si>
+  <si>
+    <t>All validations for queying work</t>
+  </si>
+  <si>
+    <t>Service method for each endpoint</t>
+  </si>
+  <si>
+    <t>It should return 204 if nothing is found else 200</t>
+  </si>
+  <si>
+    <t>it should return 200 if found else 404 with error</t>
+  </si>
+  <si>
+    <t>it should return 200 if successful else 400 with errors</t>
+  </si>
+  <si>
+    <t>Entities are correctly mapped</t>
+  </si>
+  <si>
+    <t>All contexts are saved at the same time</t>
+  </si>
+  <si>
+    <t>The Result enum is mapped to the correct http status code</t>
+  </si>
+  <si>
+    <t>Hashing and salting password</t>
+  </si>
+  <si>
+    <t>Same passwords always generate a different result</t>
+  </si>
+  <si>
+    <t>the querying understand them and the correct data is found</t>
+  </si>
+  <si>
+    <t>If err they return error messages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all methods are working correctly </t>
   </si>
 </sst>
 </file>
@@ -592,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,13 +683,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -643,13 +697,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -657,10 +711,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -668,27 +722,27 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -696,10 +750,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -707,10 +761,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -719,10 +773,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -730,208 +784,272 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
         <v>72</v>
       </c>
-      <c r="C12" t="s">
-        <v>76</v>
-      </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
         <v>73</v>
       </c>
-      <c r="B13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" t="s">
-        <v>77</v>
-      </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" t="s">
-        <v>61</v>
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E35">
-    <sortCondition ref="A2:A35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E31">
+    <sortCondition ref="A2:A31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
